--- a/dtpu_configurations/only_integer64/50mhz/graph.xlsx
+++ b/dtpu_configurations/only_integer64/50mhz/graph.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1433BF-25BD-4BD8-AD90-AEB943758480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03354830-4C0F-4CB1-9397-2FBA9653E00F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="utilizaiton" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Clocks</t>
   </si>
@@ -56,39 +56,6 @@
   </si>
   <si>
     <t>5x5</t>
-  </si>
-  <si>
-    <t>6x6</t>
-  </si>
-  <si>
-    <t>7x7</t>
-  </si>
-  <si>
-    <t>8x8</t>
-  </si>
-  <si>
-    <t>10x10</t>
-  </si>
-  <si>
-    <t>12x12</t>
-  </si>
-  <si>
-    <t>14x14</t>
-  </si>
-  <si>
-    <t>16x16</t>
-  </si>
-  <si>
-    <t>18x18</t>
-  </si>
-  <si>
-    <t>20x20</t>
-  </si>
-  <si>
-    <t>22x22</t>
-  </si>
-  <si>
-    <t>24x24</t>
   </si>
   <si>
     <t>WNS</t>
@@ -268,7 +235,7 @@
             <c:strRef>
               <c:f>utilizaiton!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -277,39 +244,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -321,46 +255,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>16.47</c:v>
+                  <c:v>22.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.41</c:v>
+                  <c:v>50.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21.81</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23.93</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>31.48</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43.23</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>57.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>71.77</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
-                  <c:v>89.095863342285156</c:v>
+                  <c:v>82.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -402,7 +303,7 @@
             <c:strRef>
               <c:f>utilizaiton!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -411,39 +312,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -461,40 +329,7 @@
                   <c:v>5.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.43</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.53</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.62</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>6.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.63</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.82</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
-                  <c:v>7.1839079856872559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -536,7 +371,7 @@
             <c:strRef>
               <c:f>utilizaiton!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -545,39 +380,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -589,46 +391,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>11.12</c:v>
+                  <c:v>14.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.67</c:v>
+                  <c:v>19.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.57</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.82</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.23</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.95</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22.09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33.75</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40.549999999999997</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
-                  <c:v>47.988719940185547</c:v>
+                  <c:v>24.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -670,7 +439,7 @@
             <c:strRef>
               <c:f>utilizaiton!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -679,39 +448,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -723,46 +459,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>34.29</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.43</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.43</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>52.14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>52.14</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
-                  <c:v>57.857143402099609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -804,7 +507,7 @@
             <c:strRef>
               <c:f>utilizaiton!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -813,39 +516,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -857,46 +527,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.73</c:v>
+                  <c:v>57.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.45</c:v>
+                  <c:v>72.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.09</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25.45</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40.909999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>82.73</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
-                  <c:v>100</c:v>
+                  <c:v>95.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -938,7 +575,7 @@
             <c:strRef>
               <c:f>utilizaiton!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -947,39 +584,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -997,39 +601,6 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -1074,7 +645,7 @@
             <c:strRef>
               <c:f>utilizaiton!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1083,39 +654,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1134,39 +672,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
-                  <c:v>6.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1460,7 +965,7 @@
             <c:strRef>
               <c:f>timing!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1469,39 +974,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1513,46 +985,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.29</c:v>
+                  <c:v>4.87</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.24</c:v>
+                  <c:v>1.47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.71</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.93</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.58</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.94</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.0099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.2599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.71</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.1299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.18</c:v>
+                  <c:v>3.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1594,7 +1033,7 @@
             <c:strRef>
               <c:f>timing!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1603,39 +1042,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1647,45 +1053,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -2019,7 +1392,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2028,39 +1401,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2072,46 +1412,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.03</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2151,7 +1458,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2160,39 +1467,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2211,39 +1485,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2283,7 +1524,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2292,39 +1533,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2342,39 +1550,6 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -2415,7 +1590,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2424,39 +1599,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2468,46 +1610,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2547,7 +1656,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2556,39 +1665,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2606,39 +1682,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2679,7 +1722,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2688,39 +1731,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2738,39 +1748,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2813,7 +1790,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2822,39 +1799,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2872,39 +1816,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2947,7 +1858,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2956,39 +1867,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3006,39 +1884,6 @@
                   <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>1.26</c:v>
                 </c:pt>
               </c:numCache>
@@ -3081,7 +1926,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -3090,39 +1935,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3140,39 +1952,6 @@
                   <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.13</c:v>
                 </c:pt>
               </c:numCache>
@@ -3215,7 +1994,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -3224,39 +2003,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3268,46 +2014,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.42</c:v>
+                  <c:v>1.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.43</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.44</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.44</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.44</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.44</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.47</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.47</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.47</c:v>
+                  <c:v>1.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5648,21 +4361,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -5674,7 +4387,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -5682,19 +4395,19 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>16.47</v>
+        <v>22.52</v>
       </c>
       <c r="C2">
         <v>5.34</v>
       </c>
       <c r="D2">
-        <v>11.12</v>
+        <v>14.88</v>
       </c>
       <c r="E2">
-        <v>34.29</v>
+        <v>57.86</v>
       </c>
       <c r="F2">
-        <v>2.73</v>
+        <v>57.27</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -5708,19 +4421,19 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>17.41</v>
+        <v>50.76</v>
       </c>
       <c r="C3">
         <v>5.34</v>
       </c>
       <c r="D3">
-        <v>11.67</v>
+        <v>19.86</v>
       </c>
       <c r="E3">
-        <v>46.43</v>
+        <v>57.86</v>
       </c>
       <c r="F3">
-        <v>5.45</v>
+        <v>72.73</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -5734,19 +4447,19 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>18.100000000000001</v>
+        <v>82.06</v>
       </c>
       <c r="C4">
-        <v>5.43</v>
+        <v>6.08</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>24.88</v>
       </c>
       <c r="E4">
-        <v>46.43</v>
+        <v>57.86</v>
       </c>
       <c r="F4">
-        <v>9.09</v>
+        <v>95.45</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -5755,291 +4468,14 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>18.75</v>
-      </c>
-      <c r="C5">
-        <v>5.53</v>
-      </c>
-      <c r="D5">
-        <v>12.57</v>
-      </c>
-      <c r="E5">
-        <v>52.14</v>
-      </c>
-      <c r="F5">
-        <v>13.64</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>19.04</v>
-      </c>
-      <c r="C6">
-        <v>5.62</v>
-      </c>
-      <c r="D6">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>52.14</v>
-      </c>
-      <c r="F6">
-        <v>19.09</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="H6">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>20.010000000000002</v>
-      </c>
-      <c r="C7">
-        <v>5.71</v>
-      </c>
-      <c r="D7">
-        <v>13.82</v>
-      </c>
-      <c r="E7">
-        <v>57.86</v>
-      </c>
-      <c r="F7">
-        <v>25.45</v>
-      </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>21.81</v>
-      </c>
-      <c r="C8">
-        <v>5.9</v>
-      </c>
-      <c r="D8">
-        <v>15.23</v>
-      </c>
-      <c r="E8">
-        <v>57.86</v>
-      </c>
-      <c r="F8">
-        <v>40.909999999999997</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>23.93</v>
-      </c>
-      <c r="C9">
-        <v>6.08</v>
-      </c>
-      <c r="D9">
-        <v>16.95</v>
-      </c>
-      <c r="E9">
-        <v>57.86</v>
-      </c>
-      <c r="F9">
-        <v>60</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="H9">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>25.9</v>
-      </c>
-      <c r="C10">
-        <v>6.26</v>
-      </c>
-      <c r="D10">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E10">
-        <v>57.86</v>
-      </c>
-      <c r="F10">
-        <v>82.73</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>31.48</v>
-      </c>
-      <c r="C11">
-        <v>6.45</v>
-      </c>
-      <c r="D11">
-        <v>22.09</v>
-      </c>
-      <c r="E11">
-        <v>57.86</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <v>8</v>
-      </c>
-      <c r="H11">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>43.23</v>
-      </c>
-      <c r="C12">
-        <v>6.63</v>
-      </c>
-      <c r="D12">
-        <v>27.6</v>
-      </c>
-      <c r="E12">
-        <v>57.86</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13">
-        <v>57.08</v>
-      </c>
-      <c r="C13">
-        <v>6.82</v>
-      </c>
-      <c r="D13">
-        <v>33.75</v>
-      </c>
-      <c r="E13">
-        <v>57.86</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <v>8</v>
-      </c>
-      <c r="H13">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <v>71.77</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>40.549999999999997</v>
-      </c>
-      <c r="E14">
-        <v>57.86</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14">
-        <v>8</v>
-      </c>
-      <c r="H14">
-        <v>6.25</v>
-      </c>
-    </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="1">
-        <v>89.095863342285156</v>
-      </c>
-      <c r="C15" s="1">
-        <v>7.1839079856872559</v>
-      </c>
-      <c r="D15" s="1">
-        <v>47.988719940185547</v>
-      </c>
-      <c r="E15" s="1">
-        <v>57.857143402099609</v>
-      </c>
-      <c r="F15" s="1">
-        <v>100</v>
-      </c>
-      <c r="G15" s="1">
-        <v>8</v>
-      </c>
-      <c r="H15" s="1">
-        <v>6.25</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6049,20 +4485,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C15"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -6070,10 +4506,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1.29</v>
+        <v>4.87</v>
       </c>
       <c r="C2">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6081,10 +4517,10 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1.24</v>
+        <v>1.47</v>
       </c>
       <c r="C3">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -6092,130 +4528,9 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1.24</v>
+        <v>3.36</v>
       </c>
       <c r="C4">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>7.98</v>
-      </c>
-      <c r="C5">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>7.71</v>
-      </c>
-      <c r="C6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>5.93</v>
-      </c>
-      <c r="C7">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>2.58</v>
-      </c>
-      <c r="C8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>2.94</v>
-      </c>
-      <c r="C9">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="C10">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="C11">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>1.71</v>
-      </c>
-      <c r="C12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="C13">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="C14">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>1.18</v>
-      </c>
-      <c r="C15">
         <v>0.01</v>
       </c>
     </row>
@@ -6229,8 +4544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6272,7 +4587,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C2">
         <v>0.01</v>
@@ -6281,7 +4596,7 @@
         <v>0.01</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -6299,7 +4614,7 @@
         <v>0.13</v>
       </c>
       <c r="K2">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -6307,7 +4622,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="C3">
         <v>0.01</v>
@@ -6334,7 +4649,7 @@
         <v>0.13</v>
       </c>
       <c r="K3">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -6342,7 +4657,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="C4">
         <v>0.01</v>
@@ -6351,7 +4666,7 @@
         <v>0.01</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -6369,392 +4684,7 @@
         <v>0.13</v>
       </c>
       <c r="K4">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>0.02</v>
-      </c>
-      <c r="C5">
-        <v>0.01</v>
-      </c>
-      <c r="D5">
-        <v>0.01</v>
-      </c>
-      <c r="E5">
-        <v>0.01</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1.26</v>
-      </c>
-      <c r="J5">
-        <v>0.13</v>
-      </c>
-      <c r="K5">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>0.02</v>
-      </c>
-      <c r="C6">
-        <v>0.01</v>
-      </c>
-      <c r="D6">
-        <v>0.01</v>
-      </c>
-      <c r="E6">
-        <v>0.01</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1.26</v>
-      </c>
-      <c r="J6">
-        <v>0.13</v>
-      </c>
-      <c r="K6">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>0.02</v>
-      </c>
-      <c r="C7">
-        <v>0.01</v>
-      </c>
-      <c r="D7">
-        <v>0.01</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1.26</v>
-      </c>
-      <c r="J7">
-        <v>0.13</v>
-      </c>
-      <c r="K7">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>0.02</v>
-      </c>
-      <c r="C8">
-        <v>0.01</v>
-      </c>
-      <c r="D8">
-        <v>0.01</v>
-      </c>
-      <c r="E8">
-        <v>0.01</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1.26</v>
-      </c>
-      <c r="J8">
-        <v>0.13</v>
-      </c>
-      <c r="K8">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>0.02</v>
-      </c>
-      <c r="C9">
-        <v>0.01</v>
-      </c>
-      <c r="D9">
-        <v>0.01</v>
-      </c>
-      <c r="E9">
-        <v>0.01</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1.26</v>
-      </c>
-      <c r="J9">
-        <v>0.13</v>
-      </c>
-      <c r="K9">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>0.03</v>
-      </c>
-      <c r="C10">
-        <v>0.01</v>
-      </c>
-      <c r="D10">
-        <v>0.01</v>
-      </c>
-      <c r="E10">
-        <v>0.01</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1.26</v>
-      </c>
-      <c r="J10">
-        <v>0.13</v>
-      </c>
-      <c r="K10">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>0.03</v>
-      </c>
-      <c r="C11">
-        <v>0.01</v>
-      </c>
-      <c r="D11">
-        <v>0.01</v>
-      </c>
-      <c r="E11">
-        <v>0.01</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1.26</v>
-      </c>
-      <c r="J11">
-        <v>0.13</v>
-      </c>
-      <c r="K11">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>0.03</v>
-      </c>
-      <c r="C12">
-        <v>0.01</v>
-      </c>
-      <c r="D12">
-        <v>0.01</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1.26</v>
-      </c>
-      <c r="J12">
-        <v>0.13</v>
-      </c>
-      <c r="K12">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13">
-        <v>0.03</v>
-      </c>
-      <c r="C13">
-        <v>0.02</v>
-      </c>
-      <c r="D13">
-        <v>0.01</v>
-      </c>
-      <c r="E13">
-        <v>0.02</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1.26</v>
-      </c>
-      <c r="J13">
-        <v>0.13</v>
-      </c>
-      <c r="K13">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <v>0.03</v>
-      </c>
-      <c r="C14">
-        <v>0.02</v>
-      </c>
-      <c r="D14">
-        <v>0.01</v>
-      </c>
-      <c r="E14">
-        <v>0.02</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1.26</v>
-      </c>
-      <c r="J14">
-        <v>0.13</v>
-      </c>
-      <c r="K14">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>0.03</v>
-      </c>
-      <c r="C15">
-        <v>0.02</v>
-      </c>
-      <c r="D15">
-        <v>0.01</v>
-      </c>
-      <c r="E15">
-        <v>0.01</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1.26</v>
-      </c>
-      <c r="J15">
-        <v>0.13</v>
-      </c>
-      <c r="K15">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="26" spans="7:7" x14ac:dyDescent="0.3">

--- a/dtpu_configurations/only_integer64/50mhz/graph.xlsx
+++ b/dtpu_configurations/only_integer64/50mhz/graph.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03354830-4C0F-4CB1-9397-2FBA9653E00F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0D9548-26AE-456C-9943-D261ECF4D010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="utilizaiton" sheetId="1" r:id="rId1"/>
     <sheet name="timing" sheetId="2" r:id="rId2"/>
     <sheet name="power" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>Clocks</t>
   </si>
@@ -75,11 +85,18 @@
   <si>
     <t>BUFG</t>
   </si>
+  <si>
+    <t>PL dynamic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,12 +139,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1409,16 +1432,16 @@
             <c:numRef>
               <c:f>power!$B$2:$B$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                  <c:v>2.5914516299962997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04</c:v>
+                  <c:v>3.7432480603456497E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                  <c:v>4.6403896063566208E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1475,16 +1498,16 @@
             <c:numRef>
               <c:f>power!$C$2:$C$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>1.3563854619860649E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>1.6043297946453094E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                  <c:v>2.0992150530219078E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1541,16 +1564,16 @@
             <c:numRef>
               <c:f>power!$D$2:$D$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>9.2263855040073395E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>9.4316815957427025E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                  <c:v>1.0660774074494839E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1607,16 +1630,16 @@
             <c:numRef>
               <c:f>power!$E$2:$E$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>5.6009069085121155E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.782211035490036E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.359858576208353E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1673,16 +1696,16 @@
             <c:numRef>
               <c:f>power!$F$2:$F$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.4674298241734505E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.1226517632603645E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.0977496653795242E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1739,16 +1762,16 @@
             <c:numRef>
               <c:f>power!$G$2:$G$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.7580282874405384E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.3227157760411501E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8.9004635810852051E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1807,16 +1830,16 @@
             <c:numRef>
               <c:f>power!$H$2:$H$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9.7000005189329386E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9.7000005189329386E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9.7000005189329386E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1875,16 +1898,16 @@
             <c:numRef>
               <c:f>power!$I$2:$I$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2588232755661011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2588232755661011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2588232755661011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1943,16 +1966,16 @@
             <c:numRef>
               <c:f>power!$J$2:$J$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12769971787929535</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12785990536212921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12805810570716858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2011,16 +2034,16 @@
             <c:numRef>
               <c:f>power!$K$2:$K$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.44</c:v>
+                  <c:v>1.4682376384735107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.45</c:v>
+                  <c:v>1.4878987073898315</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.46</c:v>
+                  <c:v>1.5121423006057739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2111,7 +2134,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4361,7 +4384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:H4"/>
     </sheetView>
   </sheetViews>
@@ -4542,15 +4565,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4581,111 +4610,295 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>0.03</v>
-      </c>
-      <c r="C2">
-        <v>0.01</v>
-      </c>
-      <c r="D2">
-        <v>0.01</v>
-      </c>
-      <c r="E2">
-        <v>0.01</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1.26</v>
-      </c>
-      <c r="J2">
-        <v>0.13</v>
-      </c>
-      <c r="K2">
-        <v>1.44</v>
+      <c r="B2" s="5">
+        <v>2.5914516299962997E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.3563854619860649E-2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>9.2263855040073395E-3</v>
+      </c>
+      <c r="E2" s="5">
+        <v>5.6009069085121155E-3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2.4674298241734505E-2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1.7580282874405384E-3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>9.7000005189329386E-4</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1.2588232755661011</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.12769971787929535</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1.4682376384735107</v>
+      </c>
+      <c r="L2" s="6">
+        <f>K2-J2-I2</f>
+        <v>8.1714645028114319E-2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="4">
+        <f>B2/L2</f>
+        <v>0.31713429448352842</v>
+      </c>
+      <c r="P2" s="4">
+        <f>C2/L2</f>
+        <v>0.16599049797247409</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>D2/L2</f>
+        <v>0.11290981562525244</v>
+      </c>
+      <c r="R2" s="4">
+        <f>E2/L2</f>
+        <v>6.8542265668352309E-2</v>
+      </c>
+      <c r="S2" s="4">
+        <f>F2/L2</f>
+        <v>0.30195686750208844</v>
+      </c>
+      <c r="T2" s="4">
+        <f>G2/L2</f>
+        <v>2.1514237586612292E-2</v>
+      </c>
+      <c r="U2" s="4">
+        <f>H2/L2</f>
+        <v>1.1870577808415623E-2</v>
+      </c>
+      <c r="W2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="3">
+        <f>I2/K2</f>
+        <v>0.85737025300268666</v>
+      </c>
+      <c r="Y2" s="3">
+        <f>J2/K2</f>
+        <v>8.6974829232726591E-2</v>
+      </c>
+      <c r="Z2" s="3">
+        <f>L2/K2</f>
+        <v>5.5654917764586767E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>0.04</v>
-      </c>
-      <c r="C3">
-        <v>0.01</v>
-      </c>
-      <c r="D3">
-        <v>0.01</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1.26</v>
-      </c>
-      <c r="J3">
-        <v>0.13</v>
-      </c>
-      <c r="K3">
-        <v>1.45</v>
+      <c r="B3" s="5">
+        <v>3.7432480603456497E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1.6043297946453094E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>9.4316815957427025E-3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4.782211035490036E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3.1226517632603645E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1.3227157760411501E-3</v>
+      </c>
+      <c r="H3" s="5">
+        <v>9.7000005189329386E-4</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1.2588232755661011</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.12785990536212921</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1.4878987073898315</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" ref="L3:L4" si="0">K3-J3-I3</f>
+        <v>0.10121552646160126</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="4">
+        <f t="shared" ref="O3:O4" si="1">B3/L3</f>
+        <v>0.36982943143271091</v>
+      </c>
+      <c r="P3" s="4">
+        <f t="shared" ref="P3:P4" si="2">C3/L3</f>
+        <v>0.15850629352345005</v>
+      </c>
+      <c r="Q3" s="4">
+        <f t="shared" ref="Q3:Q4" si="3">D3/L3</f>
+        <v>9.3184138100796787E-2</v>
+      </c>
+      <c r="R3" s="4">
+        <f t="shared" ref="R3:R4" si="4">E3/L3</f>
+        <v>4.7247800833247575E-2</v>
+      </c>
+      <c r="S3" s="4">
+        <f t="shared" ref="S3:S4" si="5">F3/L3</f>
+        <v>0.30851509372378988</v>
+      </c>
+      <c r="T3" s="4">
+        <f t="shared" ref="T3:T4" si="6">G3/L3</f>
+        <v>1.306830900635543E-2</v>
+      </c>
+      <c r="U3" s="4">
+        <f t="shared" ref="U3:U4" si="7">H3/L3</f>
+        <v>9.5835104139016525E-3</v>
+      </c>
+      <c r="W3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X3" s="3">
+        <f t="shared" ref="X3:X4" si="8">I3/K3</f>
+        <v>0.8460409766565431</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" ref="Y3:Y4" si="9">J3/K3</f>
+        <v>8.5933205484417255E-2</v>
+      </c>
+      <c r="Z3" s="3">
+        <f t="shared" ref="Z3:Z4" si="10">L3/K3</f>
+        <v>6.8025817859039675E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>0.05</v>
-      </c>
-      <c r="C4">
-        <v>0.01</v>
-      </c>
-      <c r="D4">
-        <v>0.01</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1.26</v>
-      </c>
-      <c r="J4">
-        <v>0.13</v>
-      </c>
-      <c r="K4">
-        <v>1.46</v>
-      </c>
+      <c r="B4" s="5">
+        <v>4.6403896063566208E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.0992150530219078E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.0660774074494839E-2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.359858576208353E-3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4.0977496653795242E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>8.9004635810852051E-4</v>
+      </c>
+      <c r="H4" s="5">
+        <v>9.7000005189329386E-4</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1.2588232755661011</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.12805810570716858</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1.5121423006057739</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12526091933250427</v>
+      </c>
+      <c r="N4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.37045789150235581</v>
+      </c>
+      <c r="P4" s="4">
+        <f t="shared" si="2"/>
+        <v>0.16758738992243508</v>
+      </c>
+      <c r="Q4" s="4">
+        <f t="shared" si="3"/>
+        <v>8.5108540886530498E-2</v>
+      </c>
+      <c r="R4" s="4">
+        <f t="shared" si="4"/>
+        <v>3.4806215693141587E-2</v>
+      </c>
+      <c r="S4" s="4">
+        <f t="shared" si="5"/>
+        <v>0.32713712203421363</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1055390847475615E-3</v>
+      </c>
+      <c r="U4" s="4">
+        <f t="shared" si="7"/>
+        <v>7.7438362823957505E-3</v>
+      </c>
+      <c r="W4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="3">
+        <f t="shared" si="8"/>
+        <v>0.83247672858685873</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" si="9"/>
+        <v>8.4686544153858859E-2</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" si="10"/>
+        <v>8.2836727259282372E-2</v>
+      </c>
+      <c r="AB4" s="3"/>
     </row>
     <row r="26" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G26" s="2"/>
